--- a/Datas.xlsx
+++ b/Datas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15465" windowHeight="8160" activeTab="1"/>
+    <workbookView windowWidth="11610" windowHeight="11745" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="恒星" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>名称</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>最大生成能量值</t>
+  </si>
+  <si>
+    <t>最小高度</t>
+  </si>
+  <si>
+    <t>最大高度</t>
   </si>
   <si>
     <t>陆地行星</t>
@@ -134,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -149,9 +155,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,22 +236,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,91 +276,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,7 +285,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,187 +307,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,6 +498,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,15 +521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,21 +549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -575,6 +566,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -583,15 +598,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -600,10 +606,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -612,133 +618,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1268,13 +1274,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
@@ -1282,7 +1288,7 @@
     <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1298,10 +1304,16 @@
       <c r="E1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1315,10 +1327,16 @@
       <c r="E2">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2">
+        <v>-5</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1332,10 +1350,16 @@
       <c r="E3">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>-10</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B4">
         <v>12</v>
@@ -1349,10 +1373,16 @@
       <c r="E4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <v>-10</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1366,10 +1396,16 @@
       <c r="E5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>-1</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1383,10 +1419,16 @@
       <c r="E6">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>-5</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -1400,10 +1442,16 @@
       <c r="E7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <v>-10</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8">
         <v>20</v>
@@ -1417,10 +1465,16 @@
       <c r="E8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <v>-10</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9">
         <v>3</v>
@@ -1434,10 +1488,16 @@
       <c r="E9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <v>-2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1450,6 +1510,12 @@
       </c>
       <c r="E10">
         <v>100</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1479,15 +1545,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1498,7 +1564,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1509,7 +1575,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -1520,7 +1586,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1531,7 +1597,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -1542,7 +1608,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1553,7 +1619,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1564,7 +1630,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1575,7 +1641,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>0</v>
